--- a/Dokumente/Urlaubsantrag.xlsx
+++ b/Dokumente/Urlaubsantrag.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6915" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6915" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Urlaubsantrag" sheetId="1" r:id="rId1"/>
     <sheet name="Urlaubsantrag1" sheetId="3" r:id="rId2"/>
     <sheet name="Urlaubsantrag2" sheetId="4" r:id="rId3"/>
     <sheet name="genehmigte Urlaube" sheetId="2" r:id="rId4"/>
+    <sheet name="FZ" sheetId="5" r:id="rId5"/>
+    <sheet name="FZ 1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>Urlaubsantrag</t>
   </si>
@@ -193,6 +195,30 @@
   </si>
   <si>
     <t>(wird vom Arbeitgeber ausgefüllt)</t>
+  </si>
+  <si>
+    <t>Antrag auf Freizeitausgleich</t>
+  </si>
+  <si>
+    <t>Aktueller Anspruch auf Freizeitausgleich :</t>
+  </si>
+  <si>
+    <t>Der beantragte Freizeitausgleich liegt im Zeitraum :</t>
+  </si>
+  <si>
+    <t>Freizeitausgleich von :</t>
+  </si>
+  <si>
+    <t>Freizeitausgleich bis :</t>
+  </si>
+  <si>
+    <t>Tage Freizeitausgleich :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbleibender Freizeitausgleich : </t>
+  </si>
+  <si>
+    <t>Der Antrag auf Freizeitausgleich wird :</t>
   </si>
 </sst>
 </file>
@@ -351,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -372,12 +398,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,8 +418,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -677,22 +707,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -759,23 +789,23 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -783,12 +813,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -796,12 +826,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -809,12 +839,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -822,12 +852,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>19</v>
@@ -844,22 +874,22 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
@@ -868,11 +898,11 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
@@ -881,22 +911,22 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
@@ -905,11 +935,11 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -963,12 +993,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1001,24 +1031,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1063,10 +1093,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1119,12 +1149,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1168,22 +1198,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1260,23 +1290,23 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="10">
         <v>14</v>
       </c>
@@ -1286,12 +1316,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="10">
         <v>24</v>
       </c>
@@ -1301,12 +1331,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="10">
         <v>0</v>
       </c>
@@ -1316,12 +1346,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="10">
         <v>0</v>
       </c>
@@ -1331,12 +1361,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="10">
         <f>E10+E11+E12-E13</f>
         <v>38</v>
@@ -1356,23 +1386,23 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="21">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="15">
         <v>42205</v>
       </c>
       <c r="E17" s="1"/>
@@ -1380,12 +1410,12 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="21">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="15">
         <v>42216</v>
       </c>
       <c r="E18" s="1"/>
@@ -1393,11 +1423,11 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="1">
         <v>10</v>
       </c>
@@ -1406,12 +1436,12 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="21">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="15">
         <v>42219</v>
       </c>
       <c r="E20" s="1"/>
@@ -1419,11 +1449,11 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="1">
         <v>28</v>
       </c>
@@ -1481,12 +1511,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1519,24 +1549,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1581,10 +1611,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1637,12 +1667,530 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="15">
+        <v>42139</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="15">
+        <v>42146</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="15">
+        <v>42149</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="1">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1677,96 +2225,156 @@
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A37:B37"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="16">
+        <v>42205</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42216</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="16">
+        <v>42139</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42146</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1778,87 +2386,76 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="10">
-        <v>14</v>
-      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="10">
-        <v>24</v>
-      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="10">
-        <v>10</v>
-      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="10">
-        <f>E10+E11+E12-E13</f>
-        <v>28</v>
-      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1874,77 +2471,73 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="21">
-        <v>42139</v>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="21">
-        <v>42146</v>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="21">
-        <v>42149</v>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="1">
-        <v>22</v>
-      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1988,9 +2581,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1999,12 +2590,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2037,24 +2628,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -2099,10 +2690,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2110,8 +2701,8 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2155,12 +2746,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2176,11 +2767,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A16:D16"/>
@@ -2188,84 +2774,455 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="22">
-        <v>42205</v>
-      </c>
-      <c r="C4" s="22">
-        <v>42216</v>
-      </c>
-      <c r="D4">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="22">
-        <v>42139</v>
-      </c>
-      <c r="C5" s="22">
-        <v>42146</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="10">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="15">
+        <v>42037</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="15">
+        <v>42041</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="1">
+        <f>E10-D15</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A32:B32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumente/Urlaubsantrag.xlsx
+++ b/Dokumente/Urlaubsantrag.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\pcs\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\pcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6915" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6915" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Urlaubsantrag" sheetId="1" r:id="rId1"/>
     <sheet name="Urlaubsantrag1" sheetId="3" r:id="rId2"/>
-    <sheet name="Urlaubsantrag2" sheetId="4" r:id="rId3"/>
-    <sheet name="genehmigte Urlaube" sheetId="2" r:id="rId4"/>
-    <sheet name="FZ" sheetId="5" r:id="rId5"/>
-    <sheet name="FZ 1" sheetId="6" r:id="rId6"/>
+    <sheet name="Urlaubsantrag2a" sheetId="7" r:id="rId3"/>
+    <sheet name="Urlaubsantrag 2b" sheetId="8" r:id="rId4"/>
+    <sheet name="genehmigte Urlaube" sheetId="2" r:id="rId5"/>
+    <sheet name="FZ" sheetId="5" r:id="rId6"/>
+    <sheet name="FZ 1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="52">
   <si>
     <t>Urlaubsantrag</t>
   </si>
@@ -191,9 +192,6 @@
     <t>Mai</t>
   </si>
   <si>
-    <t>offen</t>
-  </si>
-  <si>
     <t>(wird vom Arbeitgeber ausgefüllt)</t>
   </si>
   <si>
@@ -219,6 +217,9 @@
   </si>
   <si>
     <t>Der Antrag auf Freizeitausgleich wird :</t>
+  </si>
+  <si>
+    <t>Bonn, 08.05.15</t>
   </si>
 </sst>
 </file>
@@ -377,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,6 +404,19 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,16 +429,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -714,15 +718,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -789,23 +793,23 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -813,12 +817,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -826,12 +830,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -839,12 +843,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -852,12 +856,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>19</v>
@@ -874,22 +878,22 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
@@ -898,11 +902,11 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
@@ -911,22 +915,22 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
@@ -935,11 +939,11 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -993,12 +997,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1031,24 +1035,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="A32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1093,10 +1097,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1149,12 +1153,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1170,10 +1174,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A32:G32"/>
@@ -1188,6 +1188,10 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1198,22 +1202,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1290,23 +1294,23 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="10">
         <v>14</v>
       </c>
@@ -1316,12 +1320,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="10">
         <v>24</v>
       </c>
@@ -1331,12 +1335,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="10">
         <v>0</v>
       </c>
@@ -1346,12 +1350,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="10">
         <v>0</v>
       </c>
@@ -1361,12 +1365,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="10">
         <f>E10+E11+E12-E13</f>
         <v>38</v>
@@ -1386,22 +1390,22 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="15">
         <v>42205</v>
       </c>
@@ -1410,11 +1414,11 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="15">
         <v>42216</v>
       </c>
@@ -1423,11 +1427,11 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1">
         <v>10</v>
       </c>
@@ -1436,11 +1440,11 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="15">
         <v>42219</v>
       </c>
@@ -1449,11 +1453,11 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1">
         <v>28</v>
       </c>
@@ -1511,12 +1515,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1549,24 +1553,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="A32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1611,10 +1615,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1667,12 +1671,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1717,21 +1721,21 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D7"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1808,23 +1812,23 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="10">
         <v>14</v>
       </c>
@@ -1834,12 +1838,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="10">
         <v>24</v>
       </c>
@@ -1849,12 +1853,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="10">
         <v>0</v>
       </c>
@@ -1864,12 +1868,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="10">
         <v>10</v>
       </c>
@@ -1879,12 +1883,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="10">
         <f>E10+E11+E12-E13</f>
         <v>28</v>
@@ -1904,22 +1908,22 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="15">
         <v>42139</v>
       </c>
@@ -1928,52 +1932,52 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="15">
-        <v>42146</v>
+        <v>42144</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="15">
-        <v>42149</v>
+        <v>42145</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2019,7 +2023,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2029,12 +2033,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2067,24 +2071,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="A32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -2129,10 +2133,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2140,8 +2144,8 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2185,12 +2189,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2231,10 +2235,527 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="15">
+        <v>42146</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="15">
+        <v>42146</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="15">
+        <v>42149</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="1">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,10 +2810,10 @@
         <v>42146</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -2311,15 +2832,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2386,23 +2907,23 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -2410,12 +2931,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -2423,12 +2944,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -2436,12 +2957,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -2449,12 +2970,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>19</v>
@@ -2471,22 +2992,22 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
@@ -2495,11 +3016,11 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
@@ -2508,22 +3029,22 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
@@ -2532,11 +3053,11 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2590,12 +3111,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2628,24 +3149,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="A32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -2690,10 +3211,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2746,12 +3267,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2790,26 +3311,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2886,23 +3407,23 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="10">
         <v>12</v>
       </c>
@@ -2921,22 +3442,22 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="15">
         <v>42037</v>
       </c>
@@ -2945,11 +3466,11 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="15">
         <v>42041</v>
       </c>
@@ -2958,11 +3479,11 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="1">
         <v>5</v>
       </c>
@@ -2971,11 +3492,11 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="1">
         <f>E10-D15</f>
         <v>7</v>
@@ -3032,12 +3553,12 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3070,24 +3591,24 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="A27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -3109,7 +3630,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3132,10 +3653,10 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3188,12 +3709,12 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>

--- a/Dokumente/Urlaubsantrag.xlsx
+++ b/Dokumente/Urlaubsantrag.xlsx
@@ -5,20 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\pcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\pcs\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6915" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Urlaubsantrag" sheetId="1" r:id="rId1"/>
-    <sheet name="Urlaubsantrag1" sheetId="3" r:id="rId2"/>
-    <sheet name="Urlaubsantrag2a" sheetId="7" r:id="rId3"/>
-    <sheet name="Urlaubsantrag 2b" sheetId="8" r:id="rId4"/>
-    <sheet name="genehmigte Urlaube" sheetId="2" r:id="rId5"/>
-    <sheet name="FZ" sheetId="5" r:id="rId6"/>
-    <sheet name="FZ 1" sheetId="6" r:id="rId7"/>
+    <sheet name="Urlaubsantrag1_2016" sheetId="11" r:id="rId2"/>
+    <sheet name="Urlaubsantrag2_2016" sheetId="12" r:id="rId3"/>
+    <sheet name="Urlaubsantrag3_2016" sheetId="13" r:id="rId4"/>
+    <sheet name="Urlaubsantrag1_2015" sheetId="3" r:id="rId5"/>
+    <sheet name="Urlaubsantrag2a_2015" sheetId="7" r:id="rId6"/>
+    <sheet name="Urlaubsantrag 2b_2015" sheetId="8" r:id="rId7"/>
+    <sheet name="Urlaubsantrag 3_2015" sheetId="9" r:id="rId8"/>
+    <sheet name="genehmigte Urlaube" sheetId="2" r:id="rId9"/>
+    <sheet name="FZ" sheetId="5" r:id="rId10"/>
+    <sheet name="FZ 1" sheetId="6" r:id="rId11"/>
+    <sheet name="FZ 2" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="57">
   <si>
     <t>Urlaubsantrag</t>
   </si>
@@ -221,6 +226,21 @@
   <si>
     <t>Bonn, 08.05.15</t>
   </si>
+  <si>
+    <t>Bonn , 02.09.2015</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbleibender Restfreizeitausgleich : </t>
+  </si>
+  <si>
+    <t>Der FZ-Antrag wird :</t>
+  </si>
+  <si>
+    <t>Bonn, 02.01.2016</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -408,13 +428,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -712,21 +741,21 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="A1:XFD1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -793,23 +822,23 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -817,12 +846,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -830,12 +859,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -843,12 +872,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -856,13 +885,16 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
@@ -878,22 +910,22 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
@@ -902,11 +934,11 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
@@ -915,22 +947,22 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
@@ -939,12 +971,15 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1">
+        <f>E14-E19</f>
+        <v>0</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -997,12 +1032,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1035,24 +1070,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1097,10 +1132,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1153,12 +1188,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1174,6 +1209,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A32:G32"/>
@@ -1186,103 +1227,87 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1294,55 +1319,51 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="10">
-        <v>14</v>
-      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="10">
-        <v>24</v>
-      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -1350,31 +1371,26 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="10">
-        <f>E10+E11+E12-E13</f>
-        <v>38</v>
-      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1390,77 +1406,73 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="15">
-        <v>42205</v>
+      <c r="A17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="15">
-        <v>42216</v>
+      <c r="A18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
+      <c r="A19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="15">
-        <v>42219</v>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="1">
-        <v>28</v>
-      </c>
+      <c r="A21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1504,9 +1516,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1515,12 +1525,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1553,24 +1563,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1592,7 +1602,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -1615,10 +1625,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1626,8 +1636,8 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1671,530 +1681,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="10">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="10">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="10">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="10">
-        <f>E10+E11+E12-E13</f>
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="15">
-        <v>42139</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="15">
-        <v>42144</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="15">
-        <v>42145</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="1">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2233,7 +1725,444 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="15">
+        <v>42037</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="15">
+        <v>42041</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="1">
+        <f>E10-D15</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A32:B32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -2244,15 +2173,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2302,9 +2231,9 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -2329,55 +2258,50 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="10">
-        <v>14</v>
-      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="10">
-        <v>24</v>
-      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -2385,31 +2309,26 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="10">
-        <v>10</v>
-      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="10">
-        <f>E10+E11+E12-E13</f>
-        <v>28</v>
-      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2425,76 +2344,76 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="15">
-        <v>42146</v>
+        <v>42317</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="15">
-        <v>42146</v>
+        <v>42323</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="15">
-        <v>42149</v>
+        <v>42324</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2539,9 +2458,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2550,12 +2467,12 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2588,24 +2505,24 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -2627,7 +2544,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -2650,10 +2567,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2661,8 +2578,8 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2706,573 +2623,12 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A37:B37"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="16">
-        <v>42205</v>
-      </c>
-      <c r="C4" s="16">
-        <v>42216</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="16">
-        <v>42139</v>
-      </c>
-      <c r="C5" s="16">
-        <v>42146</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3308,29 +2664,30 @@
     <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3407,25 +2764,25 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -3433,138 +2790,165 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="15">
-        <v>42037</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="15">
-        <v>42041</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="1">
-        <f>E10-D15</f>
-        <v>7</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="15">
+        <v>42574</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="15">
+        <v>42589</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="15">
+        <v>42590</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1">
+        <f>E14-D19</f>
+        <v>33</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3590,160 +2974,3412 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="15">
+        <v>42504</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="15">
+        <v>42512</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="15">
+        <v>42513</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1">
+        <f>E14-D19</f>
+        <v>29</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="15">
+        <v>42644</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="15">
+        <v>42652</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="15">
+        <v>42653</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1">
+        <f>E14-D19</f>
+        <v>25</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="15">
+        <v>42205</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="15">
+        <v>42216</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="15">
+        <v>42219</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="15">
+        <v>42139</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="15">
+        <v>42144</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="15">
+        <v>42145</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
+        <f>E10+E11+E12-E13</f>
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="15">
+        <v>42146</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="15">
+        <v>42146</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="15">
+        <v>42149</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="15">
+        <v>42262</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="15">
+        <v>42265</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="15">
+        <v>42268</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="16">
+        <v>42205</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42216</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="16">
+        <v>42139</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42146</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16">
+        <v>42262</v>
+      </c>
+      <c r="C6" s="16">
+        <v>42265</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>